--- a/biology/Biochimie/Protéine_NEMO_(IKKg)/Protéine_NEMO_(IKKg).xlsx
+++ b/biology/Biochimie/Protéine_NEMO_(IKKg)/Protéine_NEMO_(IKKg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
+          <t>Protéine_NEMO_(IKKg)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">NEMO, pour NF-kB Essential Modulator est une sous-unité régulatrice d’une protéine kinase (IKK) impliquée dans la voie de signalisation des facteurs de transcription NF-kB. Ultimement, cette cascade de signalisations jouera un rôle primordial dans la réponse immunitaire et inflammatoire, dans l’oncogénèse et dans la régulation de l’apoptose.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
+          <t>Protéine_NEMO_(IKKg)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">NEMO est une sous-unité du complexe de régulation de la protéine  NF-kB. Elle a pour synonyme :
 Inhibitor of nuclear factor kappa-B kinase subunit gamma
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
+          <t>Protéine_NEMO_(IKKg)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De façon globale, on peut dire que NEMO est l’intermédiaire (le pont) entre les signaux extracellulaires et les facteurs de transcription intracellulaires.
 La protéine NEMO fonctionne comme un interrupteur : lorsque la protéine est activée (allumée), elle stimule indirectement la réponse immunitaire et inflammatoire en empêchant l’apoptose, en favorisant la prolifération cellulaire et la production de protéines impliquées dans le combat contre les agents infectieux (ex : cytokines, interleukines, immunoglobulines, etc.).
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
+          <t>Protéine_NEMO_(IKKg)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,19 +603,11 @@
           <t>Voie de signalisation de NEMO</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de voir l'animation sur "My space" : http://vids.myspace.com/index.cfm?fuseaction=vids.individual&amp;VideoID=24828007
-Ligands
-La voie de signalisation de NEMO débute par un stress extracellulaire souvent associé à des ligands. Ces sécrétions protéiques peuvent provenir de cellules voisines infectées (ex : cytokines, radicaux libres, interleukines, etc.); d'endotoxines (ex : TNF-α  « tumor necrosis factor alpha induce  cytolysis »;d'antigènes viraux (ex: T-cell lymphotrophic virus Tax protein); d'antigènes bactériens (ex : LPS = lipopolysaccharides caractéristiques des bactéries Gram négatif) et de radiations UV.
-Activation des récepteurs transmembranaires
-Ces ligands diffusent dans le milieu extracellulaire et entrent en contact avec des récepteurs transmembranaires spécifiques qui sont en réalité des kinases membranaires. Le récepteur va s’activer en captant des ions phosphore au niveau de son extrémité N-terminale intracellulaire.
-Oligomérisation de NEMO
-Lorsque NEMO entre en contact avec le récepteur, celui-ci subit un changement  de structure tridimensionnelle qui lui permet de stabiliser et d’activer les sous-unités α et β par la phosphorylation des résidus sérines (177 et 181 pour  IKK-β et 176 et 180 pour IKK-α).
-Activation des facteurs de transcription NF-kB
-Les facteurs de transcription NF-kB sont séquestrés dans le cytoplasme par des inhibiteurs Ik-B qui masquent les signaux de localisation nucléaire. Lorsque cette protéine est désactivée par la protéine kinase IKK, Ik-B se détache de NF-kB par ubiquitination et est par la suite dégradé par les protéasomes. La dissociation Ik-B va permettre la libération du site actif NF-kB qui sera translocalisé du cytosol vers le noyau.
-Début de la transcription
-NF-kB va se fixer à des séquences spécifiques de l’ADN permettant ainsi l’initiation ou la régulation de la transcription cellulaire.
 </t>
         </is>
       </c>
@@ -610,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
+          <t>Protéine_NEMO_(IKKg)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,10 +633,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Voie de signalisation de NEMO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ligands</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie de signalisation de NEMO débute par un stress extracellulaire souvent associé à des ligands. Ces sécrétions protéiques peuvent provenir de cellules voisines infectées (ex : cytokines, radicaux libres, interleukines, etc.); d'endotoxines (ex : TNF-α  « tumor necrosis factor alpha induce  cytolysis »;d'antigènes viraux (ex: T-cell lymphotrophic virus Tax protein); d'antigènes bactériens (ex : LPS = lipopolysaccharides caractéristiques des bactéries Gram négatif) et de radiations UV.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Voie de signalisation de NEMO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activation des récepteurs transmembranaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces ligands diffusent dans le milieu extracellulaire et entrent en contact avec des récepteurs transmembranaires spécifiques qui sont en réalité des kinases membranaires. Le récepteur va s’activer en captant des ions phosphore au niveau de son extrémité N-terminale intracellulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Voie de signalisation de NEMO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Oligomérisation de NEMO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque NEMO entre en contact avec le récepteur, celui-ci subit un changement  de structure tridimensionnelle qui lui permet de stabiliser et d’activer les sous-unités α et β par la phosphorylation des résidus sérines (177 et 181 pour  IKK-β et 176 et 180 pour IKK-α).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Voie de signalisation de NEMO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Activation des facteurs de transcription NF-kB</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les facteurs de transcription NF-kB sont séquestrés dans le cytoplasme par des inhibiteurs Ik-B qui masquent les signaux de localisation nucléaire. Lorsque cette protéine est désactivée par la protéine kinase IKK, Ik-B se détache de NF-kB par ubiquitination et est par la suite dégradé par les protéasomes. La dissociation Ik-B va permettre la libération du site actif NF-kB qui sera translocalisé du cytosol vers le noyau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Voie de signalisation de NEMO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Début de la transcription</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NF-kB va se fixer à des séquences spécifiques de l’ADN permettant ainsi l’initiation ou la régulation de la transcription cellulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Régulation des gènes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">NEMO contribue de façon indirecte à stimuler le système immunitaire par la régulation de l’expression des gènes :
 Au niveau de la réponse immunitaire naturelle, il y aura production de :
@@ -642,31 +837,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Prot%C3%A9ine_NEMO_(IKKg)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Protéine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_NEMO_(IKKg)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Pathogénèses associées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Plusieurs mutations au niveau du gène codant NEMO sont impliquées directement ou indirectement dans plusieurs maladies immunodéficientes et plusieurs types de cancer. 
 Exemples : 
